--- a/01_BachelorWifoMannheim/04_Graph/edges.xlsx
+++ b/01_BachelorWifoMannheim/04_Graph/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/01_BachelorWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA78F477-4DD6-4D69-8584-CFFECA1D49FD}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0FAB4D0-DC36-459C-9660-67BFE42AD8D5}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -158,13 +158,76 @@
     <t>CS 414 Einführung in Data Science Introduction to Data Science</t>
   </si>
   <si>
-    <t>MAN 455 Digital Social Innovation Lab “Young Academy” Digital Social Innovation Lab “Young Academy”</t>
-  </si>
-  <si>
     <t>Society, Ethics, and the Profession (SEP)</t>
   </si>
   <si>
-    <t>Schlüsselqualifikation aus dem Pool: Programmierkurs C/C++</t>
+    <t>SM 457 Seminar Prof. van der Aa Seminar on Process Analysis</t>
+  </si>
+  <si>
+    <t>BA 450 Bachelor-Abschlussarbeit Bachelor Thesis</t>
+  </si>
+  <si>
+    <t>MAT 303 Lineare Algebra I Linear Algebra I</t>
+  </si>
+  <si>
+    <t>Grundlagen der Volkswirtschaftslehre</t>
+  </si>
+  <si>
+    <t>Recht</t>
+  </si>
+  <si>
+    <t>Scientific Work (SW)</t>
+  </si>
+  <si>
+    <t>Economics (ECO)</t>
+  </si>
+  <si>
+    <t>Management (MAN)</t>
+  </si>
+  <si>
+    <t>Operations Management (OPM)</t>
+  </si>
+  <si>
+    <t>Marketing and Sales (MKT)</t>
+  </si>
+  <si>
+    <t>Banking, Finance, and Insurance (FIN)</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Information Systems (IS)</t>
+  </si>
+  <si>
+    <t>Business Process Management (BPM)</t>
+  </si>
+  <si>
+    <t>Law (LAW)</t>
+  </si>
+  <si>
+    <t>Grundlagen des externen Rechnungswesens</t>
+  </si>
+  <si>
+    <t>Internes Rechnungswesen</t>
+  </si>
+  <si>
+    <t>Finanzwirtschaft</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Produktion</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Programmierkurs C/C++</t>
+  </si>
+  <si>
+    <t>MAN 455 Digital Social Innovation Lab "Young Academy" Digital Social Innovation Lab "Young Academy"</t>
   </si>
   <si>
     <t>SM 442 Bachelorseminar Prof. Stuckenschmidt Seminar</t>
@@ -179,7 +242,7 @@
     <t>SM 445 Bachelorseminar Prof. Gemulla Seminar</t>
   </si>
   <si>
-    <t>SM 446 Bachelorseminar Prof. Moerkotte Seminar</t>
+    <t>SM 446 Bachelorseminar Prof. Moerkotte</t>
   </si>
   <si>
     <t>SM 448 Bachelorseminar Prof. Krause Seminar</t>
@@ -194,79 +257,16 @@
     <t>SM 451 Bachelorseminar Prof. Paulheim Seminar</t>
   </si>
   <si>
+    <t>SM 452 Bachelorseminar Prof. Heinzl Seminar</t>
+  </si>
+  <si>
     <t>SM 453 Bachelorseminar Prof. Becker Seminar</t>
   </si>
   <si>
-    <t>SM 452 Bachelorseminar Prof. Heinzl Seminar</t>
-  </si>
-  <si>
     <t>SM 454 Bachelorseminar Dr. Rost Seminar</t>
   </si>
   <si>
     <t>SM 456 Bachelorseminar Dr. Bartelt Seminar</t>
-  </si>
-  <si>
-    <t>SM 457 Seminar Prof. van der Aa Seminar on Process Analysis</t>
-  </si>
-  <si>
-    <t>BA 450 Bachelor-Abschlussarbeit Bachelor Thesis</t>
-  </si>
-  <si>
-    <t>MAT 303 Lineare Algebra I Linear Algebra I</t>
-  </si>
-  <si>
-    <t>Grundlagen der Volkswirtschaftslehre</t>
-  </si>
-  <si>
-    <t>Recht</t>
-  </si>
-  <si>
-    <t>Scientific Work (SW)</t>
-  </si>
-  <si>
-    <t>Economics (ECO)</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM)</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-  <si>
-    <t>Banking, Finance, and Insurance (FIN)</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-  <si>
-    <t>Information Systems (IS)</t>
-  </si>
-  <si>
-    <t>Business Process Management (BPM)</t>
-  </si>
-  <si>
-    <t>Law (LAW)</t>
-  </si>
-  <si>
-    <t>Grundlagen des externen Rechnungswesens</t>
-  </si>
-  <si>
-    <t>Internes Rechnungswesen</t>
-  </si>
-  <si>
-    <t>Finanzwirtschaft</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Produktion</t>
-  </si>
-  <si>
-    <t>Management</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -671,12 +671,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -775,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -799,7 +799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -807,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -823,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1041,10 +1041,10 @@
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1060,12 +1060,12 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1092,15 +1092,15 @@
         <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1108,228 +1108,228 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1337,26 +1337,39 @@
     </row>
     <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B92" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="CS 302 Praktische Informatik I Practical Computer Science I"/>
-        <filter val="CS 303 Praktische Informatik II Practical Computer Science II"/>
+        <filter val="IS 202b Wirtschaftsinformatik IIb: Einführung in die Modellierung II: Prozessmodelle Business Informatics IIb: Foundations of Modeling II: process models"/>
+        <filter val="SM 442 Seminar Prof. Stuckenschmidt Bachelorseminar"/>
+        <filter val="SM 443 Seminar Prof. Ponzetto Bachelorseminar"/>
+        <filter val="SM 444 Seminar Prof. Bizer Bachelorseminar"/>
+        <filter val="SM 445 Seminar Prof. Gemulla Bachelorseminar"/>
+        <filter val="SM 446 Seminar Prof. Moerkotte Bachelorseminar"/>
+        <filter val="SM 448 Seminar Prof. Krause Bachelorseminar"/>
+        <filter val="SM 449 Seminar Prof. Atkinson Bachelorseminar"/>
+        <filter val="SM 450 Seminar Prof. Armknecht Bachelorseminar"/>
+        <filter val="SM 451 Seminar Prof. Paulheim Bachelorseminar"/>
+        <filter val="SM 452 Seminar Prof. Heinzl Bachelorseminar"/>
+        <filter val="SM 453 Seminar Prof. Becker Bachelorseminar"/>
+        <filter val="SM 454 Seminar Dr. Rost Bachelorseminar"/>
+        <filter val="SM 456 Seminar Dr. Bartelt Bachelorseminar"/>
+        <filter val="SM 457 Seminar Prof. van der Aa Seminar on Process Analysis"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01_BachelorWifoMannheim/04_Graph/edges.xlsx
+++ b/01_BachelorWifoMannheim/04_Graph/edges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/01_BachelorWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0FAB4D0-DC36-459C-9660-67BFE42AD8D5}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431CD9B2-2F45-4902-BFD4-14C474CD2E83}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$B$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$B$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Outgoing</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>SM 457 Seminar Prof. van der Aa Seminar on Process Analysis</t>
-  </si>
-  <si>
-    <t>BA 450 Bachelor-Abschlussarbeit Bachelor Thesis</t>
   </si>
   <si>
     <t>MAT 303 Lineare Algebra I Linear Algebra I</t>
@@ -602,11 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,31 +627,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -663,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -676,18 +672,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -695,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -711,7 +707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -727,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -735,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -743,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -759,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -767,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -775,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -783,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -791,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -799,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -807,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -815,7 +811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -823,7 +819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -831,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -839,7 +835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -847,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -855,7 +851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -863,7 +859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -871,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -879,7 +875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -887,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -895,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -903,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -911,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -919,7 +915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -927,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -935,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -943,7 +939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -951,7 +947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -959,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -967,7 +963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -975,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -983,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -991,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -999,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1007,15 +1003,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1023,15 +1019,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -1047,7 +1043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -1055,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1119,33 +1115,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -1153,106 +1149,106 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1256,7 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,111 +1264,83 @@
         <v>40</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="IS 202b Wirtschaftsinformatik IIb: Einführung in die Modellierung II: Prozessmodelle Business Informatics IIb: Foundations of Modeling II: process models"/>
-        <filter val="SM 442 Seminar Prof. Stuckenschmidt Bachelorseminar"/>
-        <filter val="SM 443 Seminar Prof. Ponzetto Bachelorseminar"/>
-        <filter val="SM 444 Seminar Prof. Bizer Bachelorseminar"/>
-        <filter val="SM 445 Seminar Prof. Gemulla Bachelorseminar"/>
-        <filter val="SM 446 Seminar Prof. Moerkotte Bachelorseminar"/>
-        <filter val="SM 448 Seminar Prof. Krause Bachelorseminar"/>
-        <filter val="SM 449 Seminar Prof. Atkinson Bachelorseminar"/>
-        <filter val="SM 450 Seminar Prof. Armknecht Bachelorseminar"/>
-        <filter val="SM 451 Seminar Prof. Paulheim Bachelorseminar"/>
-        <filter val="SM 452 Seminar Prof. Heinzl Bachelorseminar"/>
-        <filter val="SM 453 Seminar Prof. Becker Bachelorseminar"/>
-        <filter val="SM 454 Seminar Dr. Rost Bachelorseminar"/>
-        <filter val="SM 456 Seminar Dr. Bartelt Bachelorseminar"/>
-        <filter val="SM 457 Seminar Prof. van der Aa Seminar on Process Analysis"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_BachelorWifoMannheim/04_Graph/edges.xlsx
+++ b/01_BachelorWifoMannheim/04_Graph/edges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/01_BachelorWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431CD9B2-2F45-4902-BFD4-14C474CD2E83}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{309D4194-EB8D-45FB-8EF4-0B70A2FB1AB3}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Outgoing</t>
   </si>
   <si>
-    <t>Ingoing</t>
-  </si>
-  <si>
     <t>IS 201 Wirtschaftsinformatik I: Einführung und Grundlagen Business Informatics I: Introduction and Foundations</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>SM 456 Bachelorseminar Dr. Bartelt Seminar</t>
+  </si>
+  <si>
+    <t>Incoming</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,727 +616,727 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
